--- a/tio-config.xlsx
+++ b/tio-config.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agroome/devel/tio-worksheet-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49A545E-E8B5-5546-8351-CB1DA18CD3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D11AF-F95E-E648-B4DE-4366B04A24CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{BB7F0C85-C231-4C4C-8144-8016471291E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BB7F0C85-C231-4C4C-8144-8016471291E9}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_tags" sheetId="26" r:id="rId1"/>
     <sheet name="users" sheetId="7" r:id="rId2"/>
     <sheet name="tags_fqdn" sheetId="14" r:id="rId3"/>
-    <sheet name="tags_ipv4_test" sheetId="24" r:id="rId4"/>
-    <sheet name="tags_ipv4" sheetId="1" r:id="rId5"/>
-    <sheet name="tags_for_os" sheetId="5" r:id="rId6"/>
-    <sheet name="exclusions" sheetId="8" r:id="rId7"/>
-    <sheet name="agent_groups" sheetId="2" r:id="rId8"/>
-    <sheet name="networks" sheetId="22" r:id="rId9"/>
-    <sheet name="scanner_groups" sheetId="3" r:id="rId10"/>
+    <sheet name="tags_ipv4" sheetId="1" r:id="rId4"/>
+    <sheet name="tags_for_os" sheetId="5" r:id="rId5"/>
+    <sheet name="exclusions" sheetId="8" r:id="rId6"/>
+    <sheet name="agent_groups" sheetId="2" r:id="rId7"/>
+    <sheet name="networks" sheetId="22" r:id="rId8"/>
+    <sheet name="scanner_groups" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>tag_value</t>
   </si>
@@ -779,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78E067E-D6DE-5448-9A34-296CCAE0A232}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -842,60 +841,6 @@
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75BA972-F9D6-E848-B4B2-AEC1E244D217}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.33203125" customWidth="1"/>
-    <col min="4" max="4" width="64.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="155" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1091,70 +1036,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02753FE-D0EB-D843-8C0E-F154B3CC44AF}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A41C12B-D5BD-AA49-8531-4EE3CEEF6A20}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1218,7 +1099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F9E67F-E396-894F-8631-E80129EF585D}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -1458,7 +1339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02077652-9872-0D42-8DE0-984BD19E395C}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1535,7 +1416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50D7DFF-B2EA-B541-A50D-1B4D0E05943B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1573,11 +1454,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A7C7CD-2E57-9140-9964-E3AE63895BD9}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1624,4 +1505,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75BA972-F9D6-E848-B4B2-AEC1E244D217}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.33203125" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tio-config.xlsx
+++ b/tio-config.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agroome/devel/tio-worksheet-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D11AF-F95E-E648-B4DE-4366B04A24CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7102E0-A22D-CA4E-A734-1C20B8467195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BB7F0C85-C231-4C4C-8144-8016471291E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{BB7F0C85-C231-4C4C-8144-8016471291E9}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_tags" sheetId="26" r:id="rId1"/>
     <sheet name="users" sheetId="7" r:id="rId2"/>
-    <sheet name="tags_fqdn" sheetId="14" r:id="rId3"/>
-    <sheet name="tags_ipv4" sheetId="1" r:id="rId4"/>
-    <sheet name="tags_for_os" sheetId="5" r:id="rId5"/>
-    <sheet name="exclusions" sheetId="8" r:id="rId6"/>
-    <sheet name="agent_groups" sheetId="2" r:id="rId7"/>
-    <sheet name="networks" sheetId="22" r:id="rId8"/>
-    <sheet name="scanner_groups" sheetId="3" r:id="rId9"/>
+    <sheet name="groups" sheetId="27" r:id="rId3"/>
+    <sheet name="tags_fqdn" sheetId="14" r:id="rId4"/>
+    <sheet name="tags_ipv4" sheetId="1" r:id="rId5"/>
+    <sheet name="tags_for_os" sheetId="5" r:id="rId6"/>
+    <sheet name="exclusions" sheetId="8" r:id="rId7"/>
+    <sheet name="agent_groups" sheetId="2" r:id="rId8"/>
+    <sheet name="networks" sheetId="22" r:id="rId9"/>
+    <sheet name="scanner_groups" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
   <si>
     <t>tag_value</t>
   </si>
@@ -366,6 +367,12 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>Team B</t>
   </si>
 </sst>
 </file>
@@ -778,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78E067E-D6DE-5448-9A34-296CCAE0A232}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -847,12 +854,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75BA972-F9D6-E848-B4B2-AEC1E244D217}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.33203125" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649CA3B3-D35A-824B-878C-21B4A1F23A24}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,6 +1031,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3BD9DD-66E4-C149-A53D-02DBC36FA22E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FFC418-DA49-CD44-A693-47380AC65ADB}">
   <dimension ref="A1:C68"/>
   <sheetViews>
@@ -1035,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A41C12B-D5BD-AA49-8531-4EE3CEEF6A20}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1099,7 +1190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F9E67F-E396-894F-8631-E80129EF585D}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -1339,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02077652-9872-0D42-8DE0-984BD19E395C}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1416,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50D7DFF-B2EA-B541-A50D-1B4D0E05943B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1454,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A7C7CD-2E57-9140-9964-E3AE63895BD9}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1505,58 +1596,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75BA972-F9D6-E848-B4B2-AEC1E244D217}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.33203125" customWidth="1"/>
-    <col min="4" max="4" width="64.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="155" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>